--- a/过程性文件/data/第四问数据/偏相关系数.xlsx
+++ b/过程性文件/data/第四问数据/偏相关系数.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="高钾" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="铅钡" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="高钾" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="铅钡" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -516,43 +516,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.945684856232524</v>
+        <v>-0.9456848562316759</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9366103269096139</v>
+        <v>-0.9366103269082973</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9831633964605269</v>
+        <v>-0.9831633964601894</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8648308750935954</v>
+        <v>-0.8648308750898794</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9191179766972044</v>
+        <v>-0.9191179766959395</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9876446290233507</v>
+        <v>-0.9876446290230846</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8131209431470233</v>
+        <v>-0.8131209431422856</v>
       </c>
       <c r="J2" t="n">
-        <v>0.972255927728402</v>
+        <v>0.9722559277275418</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.8337926801365878</v>
+        <v>-0.8337926801345745</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.9175429432846945</v>
+        <v>-0.917542943283148</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5346571901289675</v>
+        <v>-0.5346571901259022</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.9611355516665737</v>
+        <v>-0.9611355516658273</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.8033127532187133</v>
+        <v>-0.8033127532165121</v>
       </c>
     </row>
     <row r="3">
@@ -562,46 +562,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9456848562325239</v>
+        <v>-0.9456848562316758</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8253039391960744</v>
+        <v>-0.8253039391930097</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9196493083350049</v>
+        <v>-0.9196493083338052</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7618438344836511</v>
+        <v>-0.7618438344778672</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.8364128553540413</v>
+        <v>-0.8364128553519011</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9177422145896843</v>
+        <v>-0.9177422145882626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6697094852312051</v>
+        <v>-0.6697094852238074</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9528391527541202</v>
+        <v>0.9528391527534164</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.8548465512571812</v>
+        <v>-0.8548465512559565</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.8730525878620258</v>
+        <v>-0.8730525878600878</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6110475547736982</v>
+        <v>-0.6110475547712246</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9021833500508676</v>
+        <v>-0.9021833500495111</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.8650248245772209</v>
+        <v>-0.8650248245761454</v>
       </c>
     </row>
     <row r="4">
@@ -611,46 +611,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9366103269096139</v>
+        <v>-0.9366103269082972</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8253039391960744</v>
+        <v>-0.8253039391930096</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9454128642872841</v>
+        <v>-0.9454128642861196</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8822134211500801</v>
+        <v>-0.8822134211470422</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8907784911709834</v>
+        <v>-0.8907784911690478</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9400177610184371</v>
+        <v>-0.9400177610171965</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7941667415987076</v>
+        <v>-0.7941667415939726</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9131226987892811</v>
+        <v>0.9131226987872334</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.8163133477806596</v>
+        <v>-0.8163133477778964</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.9511071372139146</v>
+        <v>-0.9511071372129127</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2437425524797068</v>
+        <v>-0.2437425524729583</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.9251647541686571</v>
+        <v>-0.9251647541670834</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.70117661615976</v>
+        <v>-0.7011766161558415</v>
       </c>
     </row>
     <row r="5">
@@ -660,46 +660,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9831633964605269</v>
+        <v>-0.9831633964601894</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9196493083350049</v>
+        <v>-0.9196493083338052</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9454128642872841</v>
+        <v>-0.9454128642861196</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8318657842543715</v>
+        <v>-0.8318657842498497</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9086804191431852</v>
+        <v>-0.908680419141805</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.9710145659790786</v>
+        <v>-0.9710145659784528</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7456247409998754</v>
+        <v>-0.7456247409937192</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9774480660853326</v>
+        <v>0.9774480660847388</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.8750605725195238</v>
+        <v>-0.8750605725181541</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.9478901642539325</v>
+        <v>-0.9478901642529802</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4869132680520782</v>
+        <v>-0.4869132680484328</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.9636988311987084</v>
+        <v>-0.963698831198057</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.8187591700967946</v>
+        <v>-0.8187591700949509</v>
       </c>
     </row>
     <row r="6">
@@ -709,46 +709,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8648308750935954</v>
+        <v>-0.8648308750898794</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7618438344836512</v>
+        <v>-0.7618438344778673</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8822134211500803</v>
+        <v>-0.8822134211470422</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8318657842543716</v>
+        <v>-0.8318657842498498</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6873185158775136</v>
+        <v>-0.6873185158706344</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8552346465101515</v>
+        <v>-0.8552346465064158</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8708242415382845</v>
+        <v>-0.8708242415358498</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7527343661758102</v>
+        <v>0.7527343661688571</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.5436863981017229</v>
+        <v>-0.5436863980930182</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8066183053210111</v>
+        <v>-0.8066183053161212</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2774819280050608</v>
+        <v>-0.2774819279981346</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.7428849457329412</v>
+        <v>-0.7428849457265865</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.431805980423408</v>
+        <v>-0.4318059804136499</v>
       </c>
     </row>
     <row r="7">
@@ -758,46 +758,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9191179766972044</v>
+        <v>-0.9191179766959395</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8364128553540413</v>
+        <v>-0.836412855351901</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8907784911709836</v>
+        <v>-0.8907784911690478</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9086804191431852</v>
+        <v>-0.908680419141805</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6873185158775137</v>
+        <v>-0.6873185158706344</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9355741424243597</v>
+        <v>-0.9355741424232837</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.7707743409636975</v>
+        <v>-0.7707743409580391</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9320479063289332</v>
+        <v>0.9320479063278917</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.8416399956056351</v>
+        <v>-0.841639995604115</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.827408904768724</v>
+        <v>-0.8274089047660628</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.465018406976702</v>
+        <v>-0.465018406972957</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.9772104452976034</v>
+        <v>-0.977210445297315</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.8428100395423929</v>
+        <v>-0.8428100395409756</v>
       </c>
     </row>
     <row r="8">
@@ -807,46 +807,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9876446290233505</v>
+        <v>-0.9876446290230844</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9177422145896843</v>
+        <v>-0.9177422145882626</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9400177610184371</v>
+        <v>-0.9400177610171965</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9710145659790785</v>
+        <v>-0.9710145659784527</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8552346465101515</v>
+        <v>-0.8552346465064158</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9355741424243597</v>
+        <v>-0.9355741424232836</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8374688010702488</v>
+        <v>-0.8374688010661906</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9559101414981602</v>
+        <v>0.955910141496865</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.8126206758968865</v>
+        <v>-0.8126206758943395</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.9005422209046197</v>
+        <v>-0.9005422209026751</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.4980552121310962</v>
+        <v>-0.4980552121275563</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.9677414341396826</v>
+        <v>-0.9677414341389682</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.7829091684150767</v>
+        <v>-0.7829091684123616</v>
       </c>
     </row>
     <row r="9">
@@ -856,46 +856,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8131209431470233</v>
+        <v>-0.8131209431422854</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.669709485231205</v>
+        <v>-0.6697094852238074</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7941667415987076</v>
+        <v>-0.7941667415939727</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7456247409998753</v>
+        <v>-0.7456247409937191</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8708242415382845</v>
+        <v>-0.8708242415358498</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7707743409636975</v>
+        <v>-0.7707743409580389</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8374688010702487</v>
+        <v>-0.8374688010661906</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6852812692819314</v>
+        <v>0.6852812692735876</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4208743841638473</v>
+        <v>-0.4208743841535507</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.6229468222245996</v>
+        <v>-0.6229468222163962</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.3983457249068535</v>
+        <v>-0.3983457249014345</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.7507857696415643</v>
+        <v>-0.7507857696352876</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.4010266420752355</v>
+        <v>-0.4010266420649929</v>
       </c>
     </row>
     <row r="10">
@@ -905,46 +905,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9722559277284021</v>
+        <v>0.9722559277275417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9528391527541203</v>
+        <v>0.9528391527534162</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9131226987892812</v>
+        <v>0.9131226987872335</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9774480660853327</v>
+        <v>0.9774480660847389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7527343661758105</v>
+        <v>0.752734366168857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9320479063289332</v>
+        <v>0.9320479063278917</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9559101414981602</v>
+        <v>0.9559101414968653</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6852812692819314</v>
+        <v>0.6852812692735876</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9355350414237099</v>
+        <v>0.9355350414237172</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9347583815603853</v>
+        <v>0.9347583815592526</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5238675774770292</v>
+        <v>0.5238675774733977</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9769438472061425</v>
+        <v>0.976943847205704</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9071173116354768</v>
+        <v>0.9071173116352581</v>
       </c>
     </row>
     <row r="11">
@@ -954,46 +954,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.8337926801365877</v>
+        <v>-0.8337926801345747</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8548465512571811</v>
+        <v>-0.8548465512559565</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8163133477806596</v>
+        <v>-0.8163133477778964</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.875060572519524</v>
+        <v>-0.8750605725181542</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5436863981017229</v>
+        <v>-0.5436863980930182</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.8416399956056351</v>
+        <v>-0.8416399956041151</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.8126206758968865</v>
+        <v>-0.8126206758943397</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4208743841638473</v>
+        <v>-0.4208743841535508</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9355350414237096</v>
+        <v>0.9355350414237174</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.9003847328072312</v>
+        <v>-0.9003847328059918</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3514307540899769</v>
+        <v>-0.3514307540860042</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.8960755345553754</v>
+        <v>-0.8960755345544378</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.9434853697841594</v>
+        <v>-0.9434853697839584</v>
       </c>
     </row>
     <row r="12">
@@ -1003,46 +1003,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.9175429432846945</v>
+        <v>-0.917542943283148</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8730525878620258</v>
+        <v>-0.8730525878600875</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9511071372139149</v>
+        <v>-0.9511071372129127</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9478901642539326</v>
+        <v>-0.9478901642529802</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8066183053210113</v>
+        <v>-0.8066183053161211</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.8274089047687239</v>
+        <v>-0.8274089047660625</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.9005422209046198</v>
+        <v>-0.9005422209026752</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6229468222245997</v>
+        <v>-0.6229468222163962</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9347583815603854</v>
+        <v>0.9347583815592526</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.9003847328072312</v>
+        <v>-0.9003847328059918</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2639093960366047</v>
+        <v>-0.2639093960304634</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.9025487666079345</v>
+        <v>-0.9025487666062441</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.7873764416590708</v>
+        <v>-0.7873764416568136</v>
       </c>
     </row>
     <row r="13">
@@ -1052,46 +1052,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5346571901289675</v>
+        <v>-0.5346571901259022</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6110475547736982</v>
+        <v>-0.6110475547712245</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2437425524797068</v>
+        <v>-0.2437425524729582</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4869132680520782</v>
+        <v>-0.4869132680484327</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2774819280050608</v>
+        <v>-0.2774819279981345</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4650184069767021</v>
+        <v>-0.465018406972957</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4980552121310962</v>
+        <v>-0.4980552121275563</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3983457249068536</v>
+        <v>-0.3983457249014344</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5238675774770292</v>
+        <v>0.5238675774733977</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.3514307540899769</v>
+        <v>-0.3514307540860041</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.2639093960366046</v>
+        <v>-0.2639093960304634</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4747132788251909</v>
+        <v>-0.4747132788214427</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.5494991887750552</v>
+        <v>-0.5494991887719187</v>
       </c>
     </row>
     <row r="14">
@@ -1101,46 +1101,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.9611355516665737</v>
+        <v>-0.9611355516658274</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9021833500508675</v>
+        <v>-0.9021833500495111</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.925164754168657</v>
+        <v>-0.9251647541670834</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.9636988311987085</v>
+        <v>-0.9636988311980571</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7428849457329413</v>
+        <v>-0.7428849457265865</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9772104452976035</v>
+        <v>-0.977210445297315</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.9677414341396826</v>
+        <v>-0.9677414341389682</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7507857696415643</v>
+        <v>-0.7507857696352876</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9769438472061425</v>
+        <v>0.9769438472057042</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.8960755345553756</v>
+        <v>-0.8960755345544376</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.9025487666079345</v>
+        <v>-0.9025487666062443</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.4747132788251909</v>
+        <v>-0.4747132788214428</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.8748215987173887</v>
+        <v>-0.8748215987163682</v>
       </c>
     </row>
     <row r="15">
@@ -1150,43 +1150,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.8033127532187132</v>
+        <v>-0.8033127532165121</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8650248245772207</v>
+        <v>-0.8650248245761453</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.70117661615976</v>
+        <v>-0.7011766161558414</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8187591700967947</v>
+        <v>-0.8187591700949508</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.431805980423408</v>
+        <v>-0.4318059804136499</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.8428100395423925</v>
+        <v>-0.8428100395409754</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.7829091684150767</v>
+        <v>-0.7829091684123615</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4010266420752355</v>
+        <v>-0.4010266420649927</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9071173116354767</v>
+        <v>0.907117311635258</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.9434853697841594</v>
+        <v>-0.9434853697839582</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.7873764416590708</v>
+        <v>-0.787376441656814</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.5494991887750552</v>
+        <v>-0.5494991887719187</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.8748215987173887</v>
+        <v>-0.8748215987163681</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -1293,43 +1293,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07457350943802581</v>
+        <v>0.0745735094380363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1356023944066795</v>
+        <v>0.1356023944066054</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2721828535199042</v>
+        <v>-0.2721828535199131</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2996292899932523</v>
+        <v>0.2996292899932917</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3857066536178195</v>
+        <v>0.3857066536178594</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09205956037412268</v>
+        <v>0.09205956037415576</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07137980289980286</v>
+        <v>0.07137980289981284</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6416054231337778</v>
+        <v>0.6416054231338225</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0545938087514908</v>
+        <v>0.05459380875150831</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.03669719481061622</v>
+        <v>-0.03669719481060705</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4267343813734785</v>
+        <v>-0.4267343813734761</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1371531877352843</v>
+        <v>-0.1371531877352743</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1825620255744372</v>
+        <v>0.1825620255744658</v>
       </c>
     </row>
     <row r="3">
@@ -1339,46 +1339,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07457350943802581</v>
+        <v>0.0745735094380363</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2280270231054814</v>
+        <v>0.2280270231054393</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02943231755298549</v>
+        <v>-0.02943231755299186</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09639512045639935</v>
+        <v>-0.09639512045636571</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01571119933938208</v>
+        <v>-0.01571119933934675</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2361567917277586</v>
+        <v>-0.2361567917277346</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08728891286635651</v>
+        <v>-0.08728891286634234</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.07564916199126651</v>
+        <v>-0.07564916199123138</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01092810326299168</v>
+        <v>-0.01092810326296912</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2490517248803732</v>
+        <v>-0.2490517248803594</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01019701035427711</v>
+        <v>0.01019701035428853</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.129546662818027</v>
+        <v>-0.1295466628180194</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2017928418931781</v>
+        <v>-0.2017928418931548</v>
       </c>
     </row>
     <row r="4">
@@ -1388,46 +1388,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1356023944066795</v>
+        <v>0.1356023944066054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2280270231054814</v>
+        <v>0.2280270231054393</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05167220439623602</v>
+        <v>-0.05167220439625959</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4746953315885634</v>
+        <v>0.4746953315885324</v>
       </c>
       <c r="G4" t="n">
-        <v>0.427649486025134</v>
+        <v>0.4276494860251053</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4196335397538132</v>
+        <v>0.4196335397537784</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1474059751837585</v>
+        <v>0.1474059751837322</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4086900649026118</v>
+        <v>0.4086900649025904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2882387805051478</v>
+        <v>0.2882387805051064</v>
       </c>
       <c r="L4" t="n">
-        <v>0.162033287195469</v>
+        <v>0.1620332871954241</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07916249402603154</v>
+        <v>0.07916249402596791</v>
       </c>
       <c r="N4" t="n">
-        <v>0.134940855788001</v>
+        <v>0.1349408557879891</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3669452321710875</v>
+        <v>0.3669452321710602</v>
       </c>
     </row>
     <row r="5">
@@ -1437,46 +1437,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2721828535199042</v>
+        <v>-0.272182853519913</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02943231755298549</v>
+        <v>-0.02943231755299186</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05167220439623604</v>
+        <v>-0.05167220439625961</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3373682205878672</v>
+        <v>0.337368220587878</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2808252345280481</v>
+        <v>0.2808252345280571</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2671593379704942</v>
+        <v>0.267159337970502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1619436032028276</v>
+        <v>0.1619436032028262</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4756309176177477</v>
+        <v>0.4756309176177623</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1357890388857482</v>
+        <v>-0.1357890388857515</v>
       </c>
       <c r="L5" t="n">
-        <v>0.330893954554368</v>
+        <v>0.3308939545543663</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.06093115623132639</v>
+        <v>-0.06093115623133512</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2726889633387413</v>
+        <v>0.2726889633387427</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2976994086741466</v>
+        <v>0.2976994086741535</v>
       </c>
     </row>
     <row r="6">
@@ -1486,46 +1486,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2996292899932523</v>
+        <v>0.2996292899932917</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09639512045639932</v>
+        <v>-0.0963951204563657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4746953315885635</v>
+        <v>0.4746953315885325</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3373682205878672</v>
+        <v>0.337368220587878</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06826969301980806</v>
+        <v>-0.06826969301976307</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2563285144514558</v>
+        <v>-0.2563285144514241</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04720192894628739</v>
+        <v>-0.0472019289462647</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3564120516967472</v>
+        <v>-0.3564120516967156</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.247514651770062</v>
+        <v>-0.2475146517700338</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.03432077619590768</v>
+        <v>-0.03432077619587626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2175637784566256</v>
+        <v>0.2175637784566604</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.07824060081826591</v>
+        <v>-0.07824060081825661</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3476766030559802</v>
+        <v>-0.3476766030559551</v>
       </c>
     </row>
     <row r="7">
@@ -1535,46 +1535,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3857066536178194</v>
+        <v>0.3857066536178594</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01571119933938208</v>
+        <v>-0.01571119933934674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.427649486025134</v>
+        <v>0.4276494860251053</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2808252345280481</v>
+        <v>0.2808252345280571</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06826969301980805</v>
+        <v>-0.06826969301976311</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1633767929175166</v>
+        <v>-0.1633767929174829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1457278824166688</v>
+        <v>-0.145727882416649</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.5227740120578084</v>
+        <v>-0.5227740120577862</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.06031328622773844</v>
+        <v>-0.06031328622770605</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03665163535486925</v>
+        <v>-0.03665163535483854</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1038449023292805</v>
+        <v>0.1038449023293116</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1126491196685641</v>
+        <v>0.112649119668577</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2861177400720017</v>
+        <v>-0.2861177400719753</v>
       </c>
     </row>
     <row r="8">
@@ -1584,46 +1584,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09205956037412269</v>
+        <v>0.09205956037415576</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2361567917277586</v>
+        <v>-0.2361567917277346</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4196335397538132</v>
+        <v>0.4196335397537783</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2671593379704941</v>
+        <v>0.267159337970502</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2563285144514558</v>
+        <v>-0.2563285144514241</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1633767929175166</v>
+        <v>-0.1633767929174829</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03993953342206106</v>
+        <v>-0.03993953342204154</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2037949225119099</v>
+        <v>-0.2037949225118793</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.2375237100721006</v>
+        <v>-0.2375237100720757</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01480394732934693</v>
+        <v>0.01480394732937475</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.09043667762805231</v>
+        <v>-0.0904366776280271</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04096527554276616</v>
+        <v>0.04096527554277728</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.27643376589073</v>
+        <v>-0.2764337658907058</v>
       </c>
     </row>
     <row r="9">
@@ -1633,46 +1633,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07137980289980282</v>
+        <v>0.07137980289981294</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.08728891286635651</v>
+        <v>-0.08728891286634233</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1474059751837585</v>
+        <v>0.1474059751837322</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1619436032028276</v>
+        <v>0.1619436032028262</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04720192894628741</v>
+        <v>-0.0472019289462647</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1457278824166688</v>
+        <v>-0.145727882416649</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03993953342206107</v>
+        <v>-0.03993953342204157</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.357542993494378</v>
+        <v>-0.3575429934943645</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6612439772573854</v>
+        <v>0.661243977257413</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009441027454085793</v>
+        <v>0.009441027454100009</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2075564996379981</v>
+        <v>0.2075564996380094</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.2299259444620868</v>
+        <v>-0.2299259444620832</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.227723279662506</v>
+        <v>-0.2277232796624912</v>
       </c>
     </row>
     <row r="10">
@@ -1682,46 +1682,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6416054231337779</v>
+        <v>0.6416054231338225</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.07564916199126649</v>
+        <v>-0.07564916199123135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4086900649026118</v>
+        <v>0.4086900649025903</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4756309176177477</v>
+        <v>0.4756309176177624</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3564120516967473</v>
+        <v>-0.3564120516967156</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5227740120578085</v>
+        <v>-0.5227740120577862</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2037949225119099</v>
+        <v>-0.2037949225118793</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.357542993494378</v>
+        <v>-0.3575429934943645</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1912978118531163</v>
+        <v>0.1912978118531595</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1087362120425832</v>
+        <v>-0.1087362120425545</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4287534270227297</v>
+        <v>0.428753427022769</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.1144884052173839</v>
+        <v>-0.1144884052173782</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.471395091135528</v>
+        <v>-0.4713950911355091</v>
       </c>
     </row>
     <row r="11">
@@ -1731,46 +1731,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05459380875149085</v>
+        <v>0.05459380875150831</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01092810326299168</v>
+        <v>-0.01092810326296912</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2882387805051478</v>
+        <v>0.2882387805051064</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1357890388857483</v>
+        <v>-0.1357890388857514</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2475146517700621</v>
+        <v>-0.2475146517700338</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06031328622773848</v>
+        <v>-0.06031328622770607</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2375237100721006</v>
+        <v>-0.2375237100720757</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6612439772573854</v>
+        <v>0.6612439772574131</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1912978118531163</v>
+        <v>0.1912978118531594</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00864732599536059</v>
+        <v>-0.008647325995340771</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.09189349768905337</v>
+        <v>-0.09189349768904011</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1456819912958975</v>
+        <v>0.1456819912959088</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1864461096390166</v>
+        <v>0.1864461096390506</v>
       </c>
     </row>
     <row r="12">
@@ -1780,46 +1780,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03669719481061622</v>
+        <v>-0.03669719481060706</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2490517248803732</v>
+        <v>-0.2490517248803594</v>
       </c>
       <c r="D12" t="n">
-        <v>0.162033287195469</v>
+        <v>0.1620332871954241</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3308939545543682</v>
+        <v>0.3308939545543663</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03432077619590765</v>
+        <v>-0.03432077619587626</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03665163535486927</v>
+        <v>-0.03665163535483854</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01480394732934692</v>
+        <v>0.01480394732937477</v>
       </c>
       <c r="I12" t="n">
-        <v>0.009441027454085803</v>
+        <v>0.009441027454099979</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1087362120425831</v>
+        <v>-0.1087362120425545</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.008647325995360612</v>
+        <v>-0.008647325995340753</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.05753638478786049</v>
+        <v>-0.05753638478785238</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.287327106030859</v>
+        <v>-0.2873271060308532</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.05129919531531398</v>
+        <v>-0.05129919531528945</v>
       </c>
     </row>
     <row r="13">
@@ -1829,46 +1829,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4267343813734785</v>
+        <v>-0.4267343813734761</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01019701035427712</v>
+        <v>0.01019701035428851</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07916249402603154</v>
+        <v>0.07916249402596789</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06093115623132638</v>
+        <v>-0.06093115623133512</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2175637784566256</v>
+        <v>0.2175637784566604</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1038449023292805</v>
+        <v>0.1038449023293117</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.09043667762805235</v>
+        <v>-0.09043667762802708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2075564996379981</v>
+        <v>0.2075564996380093</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4287534270227297</v>
+        <v>0.4287534270227689</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.09189349768905335</v>
+        <v>-0.09189349768904011</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.05753638478786048</v>
+        <v>-0.05753638478785237</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.03557508664966089</v>
+        <v>-0.03557508664965241</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1857470756685225</v>
+        <v>0.1857470756685498</v>
       </c>
     </row>
     <row r="14">
@@ -1878,46 +1878,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1371531877352843</v>
+        <v>-0.1371531877352743</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.129546662818027</v>
+        <v>-0.1295466628180195</v>
       </c>
       <c r="D14" t="n">
-        <v>0.134940855788001</v>
+        <v>0.1349408557879891</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2726889633387413</v>
+        <v>0.2726889633387427</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.07824060081826591</v>
+        <v>-0.07824060081825658</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1126491196685641</v>
+        <v>0.112649119668577</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04096527554276615</v>
+        <v>0.04096527554277729</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2299259444620868</v>
+        <v>-0.2299259444620832</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1144884052173839</v>
+        <v>-0.1144884052173782</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1456819912958975</v>
+        <v>0.1456819912959088</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.287327106030859</v>
+        <v>-0.2873271060308532</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.03557508664966086</v>
+        <v>-0.03557508664965237</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1334905503499182</v>
+        <v>-0.1334905503499119</v>
       </c>
     </row>
     <row r="15">
@@ -1927,43 +1927,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1825620255744372</v>
+        <v>0.1825620255744659</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2017928418931781</v>
+        <v>-0.2017928418931548</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3669452321710877</v>
+        <v>0.3669452321710602</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2976994086741466</v>
+        <v>0.2976994086741535</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3476766030559802</v>
+        <v>-0.3476766030559551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2861177400720017</v>
+        <v>-0.2861177400719752</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2764337658907299</v>
+        <v>-0.2764337658907057</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.227723279662506</v>
+        <v>-0.2277232796624912</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.4713950911355281</v>
+        <v>-0.4713950911355092</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1864461096390166</v>
+        <v>0.1864461096390506</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.05129919531531396</v>
+        <v>-0.05129919531528945</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1857470756685225</v>
+        <v>0.1857470756685498</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1334905503499183</v>
+        <v>-0.1334905503499119</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
